--- a/Confirmed-worksheet.xlsx
+++ b/Confirmed-worksheet.xlsx
@@ -867,7 +867,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -972,6 +972,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1269,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3445,7 +3448,7 @@
       <c r="J42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="42" t="str">
+      <c r="K42" s="56" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC39 41795</v>
       </c>
@@ -3699,7 +3702,7 @@
       <c r="J47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="42" t="str">
+      <c r="K47" s="56" t="str">
         <f>A47</f>
         <v>OGLEII SCO-SC2 35000</v>
       </c>
@@ -4055,9 +4058,11 @@
     <hyperlink ref="A45" r:id="rId96"/>
     <hyperlink ref="K45" r:id="rId97" display="http://www.aavso.org/vsx/docs/399969/1754/567063_Phase.png"/>
     <hyperlink ref="L45" r:id="rId98" display="http://ogledb.astrouw.edu.pl/~ogle/photdb/getobj.php?field=BUL_SC41&amp;starid=567063&amp;db=DIA&amp;points=good"/>
+    <hyperlink ref="K42" r:id="rId99" display="http://www.aavso.org/vsx/docs/399922/1754/41795_Phase.png"/>
+    <hyperlink ref="K47" r:id="rId100" display="http://www.aavso.org/vsx/docs/356090/1754/OGLEII_SCO-SC2_3500_phase_and_period_diagram.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId99"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>
 

--- a/Confirmed-worksheet.xlsx
+++ b/Confirmed-worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="197">
   <si>
     <t>OGLEII BUL-SC10 164819</t>
   </si>
@@ -686,6 +686,30 @@
   </si>
   <si>
     <t>Min II = 15.09 Ic</t>
+  </si>
+  <si>
+    <t>Min II = 17.06</t>
+  </si>
+  <si>
+    <t>OGLEII DIA BUL-SC42 V2570, CMC15 J180926.1-264713</t>
+  </si>
+  <si>
+    <t>OGLEII BUL-SC42 542668</t>
+  </si>
+  <si>
+    <t>18 09 26.17, -26 47 13.4</t>
+  </si>
+  <si>
+    <t>Min II = 16.04 Ic</t>
+  </si>
+  <si>
+    <t>OGLEII BUL-SC42 569400</t>
+  </si>
+  <si>
+    <t>OGLEII DIA BUL-SC42 V3524, UCAC4 318-147212</t>
+  </si>
+  <si>
+    <t>18 09 30.42 -26 34 47.0</t>
   </si>
 </sst>
 </file>
@@ -945,7 +969,6 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -975,6 +998,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1272,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1343,7 +1367,7 @@
       <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="43" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1378,11 +1402,11 @@
       <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="42" t="str">
+      <c r="K2" s="41" t="str">
         <f>A2</f>
         <v xml:space="preserve">OGLEII BUL-SC1 179570 </v>
       </c>
-      <c r="L2" s="42" t="str">
+      <c r="L2" s="41" t="str">
         <f t="shared" ref="L2:L42" si="0">A2</f>
         <v xml:space="preserve">OGLEII BUL-SC1 179570 </v>
       </c>
@@ -1430,11 +1454,11 @@
       <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="42" t="str">
+      <c r="K3" s="41" t="str">
         <f t="shared" ref="K3:K42" si="1">A3</f>
         <v>OGLEII BUL-SC1 36409</v>
       </c>
-      <c r="L3" s="42" t="str">
+      <c r="L3" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC1 36409</v>
       </c>
@@ -1482,11 +1506,11 @@
       <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="42" t="str">
+      <c r="K4" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC10 164819</v>
       </c>
-      <c r="L4" s="42" t="str">
+      <c r="L4" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC10 164819</v>
       </c>
@@ -1534,11 +1558,11 @@
       <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="42" t="str">
+      <c r="K5" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC11 276310</v>
       </c>
-      <c r="L5" s="42" t="str">
+      <c r="L5" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC11 276310</v>
       </c>
@@ -1586,11 +1610,11 @@
       <c r="J6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="42" t="str">
+      <c r="K6" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC18 443735</v>
       </c>
-      <c r="L6" s="42" t="str">
+      <c r="L6" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC18 443735</v>
       </c>
@@ -1638,11 +1662,11 @@
       <c r="J7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="42" t="str">
+      <c r="K7" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC18 543410</v>
       </c>
-      <c r="L7" s="42" t="str">
+      <c r="L7" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC18 543410</v>
       </c>
@@ -1690,11 +1714,11 @@
       <c r="J8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="42" t="str">
+      <c r="K8" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC19 417760</v>
       </c>
-      <c r="L8" s="42" t="str">
+      <c r="L8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC19 417760</v>
       </c>
@@ -1742,11 +1766,11 @@
       <c r="J9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="42" t="str">
+      <c r="K9" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC19 439676</v>
       </c>
-      <c r="L9" s="42" t="str">
+      <c r="L9" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC19 439676</v>
       </c>
@@ -1794,11 +1818,11 @@
       <c r="J10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="42" t="str">
+      <c r="K10" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC19 688883</v>
       </c>
-      <c r="L10" s="42" t="str">
+      <c r="L10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC19 688883</v>
       </c>
@@ -1846,11 +1870,11 @@
       <c r="J11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="42" t="str">
+      <c r="K11" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC21 530758</v>
       </c>
-      <c r="L11" s="42" t="str">
+      <c r="L11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC21 530758</v>
       </c>
@@ -1898,11 +1922,11 @@
       <c r="J12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="42" t="str">
+      <c r="K12" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC21 622739</v>
       </c>
-      <c r="L12" s="42" t="str">
+      <c r="L12" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC21 622739</v>
       </c>
@@ -1950,11 +1974,11 @@
       <c r="J13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="42" t="str">
+      <c r="K13" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC22 11759</v>
       </c>
-      <c r="L13" s="42" t="str">
+      <c r="L13" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC22 11759</v>
       </c>
@@ -2002,11 +2026,11 @@
       <c r="J14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="42" t="str">
+      <c r="K14" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC22 672762</v>
       </c>
-      <c r="L14" s="42" t="str">
+      <c r="L14" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC22 672762</v>
       </c>
@@ -2054,11 +2078,11 @@
       <c r="J15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="42" t="str">
+      <c r="K15" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC22 76978</v>
       </c>
-      <c r="L15" s="42" t="str">
+      <c r="L15" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC22 76978</v>
       </c>
@@ -2106,11 +2130,11 @@
       <c r="J16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="42" t="str">
+      <c r="K16" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC23 204666</v>
       </c>
-      <c r="L16" s="42" t="str">
+      <c r="L16" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC23 204666</v>
       </c>
@@ -2158,11 +2182,11 @@
       <c r="J17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="42" t="str">
+      <c r="K17" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC23 215904</v>
       </c>
-      <c r="L17" s="42" t="str">
+      <c r="L17" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC23 215904</v>
       </c>
@@ -2208,11 +2232,11 @@
       <c r="J18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="42" t="str">
+      <c r="K18" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC23 523985</v>
       </c>
-      <c r="L18" s="42" t="str">
+      <c r="L18" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC23 523985</v>
       </c>
@@ -2258,11 +2282,11 @@
       <c r="J19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="42" t="str">
+      <c r="K19" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC23 672563</v>
       </c>
-      <c r="L19" s="42" t="str">
+      <c r="L19" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC23 672563</v>
       </c>
@@ -2310,11 +2334,11 @@
       <c r="J20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="42" t="str">
+      <c r="K20" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC24 200815</v>
       </c>
-      <c r="L20" s="42" t="str">
+      <c r="L20" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC24 200815</v>
       </c>
@@ -2360,11 +2384,11 @@
       <c r="J21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="42" t="str">
+      <c r="K21" s="41" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC26 116575</v>
       </c>
-      <c r="L21" s="42" t="str">
+      <c r="L21" s="41" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC26 116575</v>
       </c>
@@ -2410,15 +2434,15 @@
       <c r="J22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="43" t="str">
+      <c r="K22" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC27 598770</v>
       </c>
-      <c r="L22" s="43" t="str">
+      <c r="L22" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC27 598770</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="44" t="s">
         <v>170</v>
       </c>
       <c r="N22" s="25">
@@ -2462,11 +2486,11 @@
       <c r="J23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="43" t="str">
+      <c r="K23" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC29 439262</v>
       </c>
-      <c r="L23" s="43" t="str">
+      <c r="L23" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC29 439262</v>
       </c>
@@ -2514,11 +2538,11 @@
       <c r="J24" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="43" t="str">
+      <c r="K24" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC3 563785</v>
       </c>
-      <c r="L24" s="43" t="str">
+      <c r="L24" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC3 563785</v>
       </c>
@@ -2566,11 +2590,11 @@
       <c r="J25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="43" t="str">
+      <c r="K25" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC31 152059</v>
       </c>
-      <c r="L25" s="43" t="str">
+      <c r="L25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC31 152059</v>
       </c>
@@ -2618,11 +2642,11 @@
       <c r="J26" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="43" t="str">
+      <c r="K26" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC31 355278</v>
       </c>
-      <c r="L26" s="43" t="str">
+      <c r="L26" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC31 355278</v>
       </c>
@@ -2670,11 +2694,11 @@
       <c r="J27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="43" t="str">
+      <c r="K27" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC31 726948</v>
       </c>
-      <c r="L27" s="43" t="str">
+      <c r="L27" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC31 726948</v>
       </c>
@@ -2722,11 +2746,11 @@
       <c r="J28" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="43" t="str">
+      <c r="K28" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC32 711951</v>
       </c>
-      <c r="L28" s="43" t="str">
+      <c r="L28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC32 711951</v>
       </c>
@@ -2774,11 +2798,11 @@
       <c r="J29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="43" t="str">
+      <c r="K29" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC33 225455</v>
       </c>
-      <c r="L29" s="43" t="str">
+      <c r="L29" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC33 225455</v>
       </c>
@@ -2826,11 +2850,11 @@
       <c r="J30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="43" t="str">
+      <c r="K30" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC33 505748</v>
       </c>
-      <c r="L30" s="43" t="str">
+      <c r="L30" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC33 505748</v>
       </c>
@@ -2878,11 +2902,11 @@
       <c r="J31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="43" t="str">
+      <c r="K31" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC34 779867</v>
       </c>
-      <c r="L31" s="43" t="str">
+      <c r="L31" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC34 779867</v>
       </c>
@@ -2930,11 +2954,11 @@
       <c r="J32" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="43" t="str">
+      <c r="K32" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC34 93832</v>
       </c>
-      <c r="L32" s="43" t="str">
+      <c r="L32" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC34 93832</v>
       </c>
@@ -2982,11 +3006,11 @@
       <c r="J33" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="43" t="str">
+      <c r="K33" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC35 231516</v>
       </c>
-      <c r="L33" s="43" t="str">
+      <c r="L33" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC35 231516</v>
       </c>
@@ -3034,11 +3058,11 @@
       <c r="J34" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="43" t="str">
+      <c r="K34" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC35 232081</v>
       </c>
-      <c r="L34" s="43" t="str">
+      <c r="L34" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC35 232081</v>
       </c>
@@ -3086,11 +3110,11 @@
       <c r="J35" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="43" t="str">
+      <c r="K35" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC35 27507</v>
       </c>
-      <c r="L35" s="43" t="str">
+      <c r="L35" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC35 27507</v>
       </c>
@@ -3138,11 +3162,11 @@
       <c r="J36" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="43" t="str">
+      <c r="K36" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC35 692</v>
       </c>
-      <c r="L36" s="43" t="str">
+      <c r="L36" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC35 692</v>
       </c>
@@ -3190,11 +3214,11 @@
       <c r="J37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="43" t="str">
+      <c r="K37" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC35 93405</v>
       </c>
-      <c r="L37" s="43" t="str">
+      <c r="L37" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC35 93405</v>
       </c>
@@ -3242,15 +3266,15 @@
       <c r="J38" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="43" t="str">
+      <c r="K38" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC37 224485</v>
       </c>
-      <c r="L38" s="43" t="str">
+      <c r="L38" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC37 224485</v>
       </c>
-      <c r="M38" s="45" t="s">
+      <c r="M38" s="44" t="s">
         <v>171</v>
       </c>
       <c r="N38" s="24">
@@ -3294,11 +3318,11 @@
       <c r="J39" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="43" t="str">
+      <c r="K39" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC37 621556</v>
       </c>
-      <c r="L39" s="43" t="str">
+      <c r="L39" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC37 621556</v>
       </c>
@@ -3337,7 +3361,7 @@
       <c r="G40" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="45">
         <v>0.42569699999999999</v>
       </c>
       <c r="I40" s="29">
@@ -3346,11 +3370,11 @@
       <c r="J40" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="43" t="str">
+      <c r="K40" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC38 210880</v>
       </c>
-      <c r="L40" s="43" t="str">
+      <c r="L40" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC38 210880</v>
       </c>
@@ -3396,11 +3420,11 @@
       <c r="J41" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="43" t="str">
+      <c r="K41" s="42" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC38 627171</v>
       </c>
-      <c r="L41" s="43" t="str">
+      <c r="L41" s="42" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC38 627171</v>
       </c>
@@ -3448,11 +3472,11 @@
       <c r="J42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="56" t="str">
+      <c r="K42" s="55" t="str">
         <f t="shared" si="1"/>
         <v>OGLEII BUL-SC39 41795</v>
       </c>
-      <c r="L42" s="54" t="str">
+      <c r="L42" s="53" t="str">
         <f t="shared" si="0"/>
         <v>OGLEII BUL-SC39 41795</v>
       </c>
@@ -3470,43 +3494,43 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="50">
+      <c r="E43" s="49">
         <v>15.44</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="49">
         <v>16.2</v>
       </c>
-      <c r="G43" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="51">
+      <c r="G43" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="50">
         <v>1.960977</v>
       </c>
-      <c r="I43" s="49">
+      <c r="I43" s="48">
         <v>2451360.8080000002</v>
       </c>
-      <c r="J43" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="52" t="s">
+      <c r="J43" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="L43" s="53" t="s">
+      <c r="L43" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="M43" s="47" t="s">
+      <c r="M43" s="46" t="s">
         <v>174</v>
       </c>
       <c r="N43" s="16">
@@ -3520,43 +3544,43 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="50">
+      <c r="E44" s="49">
         <v>15.67</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="49">
         <v>16.149999999999999</v>
       </c>
-      <c r="G44" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="51">
+      <c r="G44" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="50">
         <v>0.48105399999999998</v>
       </c>
-      <c r="I44" s="49">
+      <c r="I44" s="48">
         <v>2451460.5669999998</v>
       </c>
-      <c r="J44" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="53" t="s">
+      <c r="J44" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="L44" s="53" t="s">
+      <c r="L44" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="M44" s="47"/>
+      <c r="M44" s="46"/>
       <c r="N44" s="12">
         <v>15.842000000000001</v>
       </c>
@@ -3568,45 +3592,45 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="49">
         <v>14.92</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="50">
         <v>15.57</v>
       </c>
-      <c r="G45" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="51">
+      <c r="G45" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="50">
         <v>1.741905</v>
       </c>
-      <c r="I45" s="49">
+      <c r="I45" s="48">
         <v>2450684.6850000001</v>
       </c>
-      <c r="J45" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="53" t="str">
+      <c r="J45" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="52" t="str">
         <f>A45</f>
         <v>OGLEII BUL-SC41 567063</v>
       </c>
-      <c r="L45" s="53" t="str">
+      <c r="L45" s="52" t="str">
         <f>A45</f>
         <v>OGLEII BUL-SC41 567063</v>
       </c>
-      <c r="M45" s="47" t="s">
+      <c r="M45" s="46" t="s">
         <v>188</v>
       </c>
       <c r="N45" s="12">
@@ -3620,45 +3644,45 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="50">
+      <c r="E46" s="49">
         <v>14.03</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="50">
         <v>14.33</v>
       </c>
-      <c r="G46" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="51">
+      <c r="G46" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="50">
         <v>0.64498599999999995</v>
       </c>
-      <c r="I46" s="49">
+      <c r="I46" s="48">
         <v>2451402.7429999998</v>
       </c>
-      <c r="J46" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="53" t="str">
+      <c r="J46" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="52" t="str">
         <f>A46</f>
         <v>OGLEII BUL-SC42 418437</v>
       </c>
-      <c r="L46" s="53" t="str">
+      <c r="L46" s="52" t="str">
         <f>A46</f>
         <v>OGLEII BUL-SC42 418437</v>
       </c>
-      <c r="M46" s="47" t="s">
+      <c r="M46" s="46" t="s">
         <v>185</v>
       </c>
       <c r="N46" s="12">
@@ -3694,7 +3718,7 @@
         <v>44</v>
       </c>
       <c r="H47" s="36">
-        <v>0.97319</v>
+        <v>0.97318400000000005</v>
       </c>
       <c r="I47" s="37">
         <v>2450996.534</v>
@@ -3702,15 +3726,17 @@
       <c r="J47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="56" t="str">
+      <c r="K47" s="55" t="str">
         <f>A47</f>
         <v>OGLEII SCO-SC2 35000</v>
       </c>
-      <c r="L47" s="54" t="str">
+      <c r="L47" s="53" t="str">
         <f>A47</f>
         <v>OGLEII SCO-SC2 35000</v>
       </c>
-      <c r="M47" s="41"/>
+      <c r="M47" s="56" t="s">
+        <v>189</v>
+      </c>
       <c r="N47" s="38">
         <v>16.882000000000001</v>
       </c>
@@ -3722,235 +3748,323 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
+      <c r="A48" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="49">
+        <v>14.97</v>
+      </c>
+      <c r="F48" s="49">
+        <v>15.5</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="50">
+        <v>0.41852899999999998</v>
+      </c>
+      <c r="I48" s="48">
+        <v>2450560.9040000001</v>
+      </c>
+      <c r="J48" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="52" t="str">
+        <f>A48</f>
+        <v>OGLEII BUL-SC42 569400</v>
+      </c>
+      <c r="L48" s="52" t="str">
+        <f>A48</f>
+        <v>OGLEII BUL-SC42 569400</v>
+      </c>
+      <c r="M48" s="46"/>
+      <c r="N48" s="12">
+        <v>15.194000000000001</v>
+      </c>
+      <c r="O48" s="12">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="P48" s="12">
+        <v>15.127000000000001</v>
+      </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
+      <c r="A49" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="49">
+        <v>15.62</v>
+      </c>
+      <c r="F49" s="49">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="50">
+        <v>0.771756</v>
+      </c>
+      <c r="I49" s="48">
+        <v>2450588.9019999998</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="52" t="str">
+        <f>A49</f>
+        <v>OGLEII BUL-SC42 542668</v>
+      </c>
+      <c r="L49" s="52" t="str">
+        <f>A49</f>
+        <v>OGLEII BUL-SC42 542668</v>
+      </c>
+      <c r="M49" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="N49" s="12">
+        <v>15.727</v>
+      </c>
+      <c r="O49" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="P49" s="12">
+        <v>15.646000000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="50"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="50"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="50"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="50"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="50"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="50"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="50"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="50"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="50"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="50"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="50"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
@@ -4060,9 +4174,15 @@
     <hyperlink ref="L45" r:id="rId98" display="http://ogledb.astrouw.edu.pl/~ogle/photdb/getobj.php?field=BUL_SC41&amp;starid=567063&amp;db=DIA&amp;points=good"/>
     <hyperlink ref="K42" r:id="rId99" display="http://www.aavso.org/vsx/docs/399922/1754/41795_Phase.png"/>
     <hyperlink ref="K47" r:id="rId100" display="http://www.aavso.org/vsx/docs/356090/1754/OGLEII_SCO-SC2_3500_phase_and_period_diagram.png"/>
+    <hyperlink ref="A49" r:id="rId101"/>
+    <hyperlink ref="K49" r:id="rId102" display="http://www.aavso.org/vsx/docs/399995/1754/542668_Phase.png"/>
+    <hyperlink ref="L49" r:id="rId103" display="http://ogledb.astrouw.edu.pl/~ogle/photdb/getobj.php?field=BUL_SC42&amp;starid=542668&amp;db=DIA&amp;points=good"/>
+    <hyperlink ref="A48" r:id="rId104"/>
+    <hyperlink ref="K48" r:id="rId105" display="http://www.aavso.org/vsx/docs/399996/1754/569400_Phase.png"/>
+    <hyperlink ref="L48" r:id="rId106" display="http://ogledb.astrouw.edu.pl/~ogle/photdb/getobj.php?field=BUL_SC42&amp;starid=569400&amp;db=DIA&amp;points=good"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId101"/>
+  <pageSetup orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
 
